--- a/Event Reporting/Reports/0. Summary.xlsx
+++ b/Event Reporting/Reports/0. Summary.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\upessocs\.IQAC\Event Reporting\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1498E-C357-436D-9E7D-AAC5153C110F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D206D68-4D7A-469D-9AE9-13A8747C571C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$11</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>S.No</t>
   </si>
@@ -127,6 +130,12 @@
   </si>
   <si>
     <t>Received, formats but acceptable</t>
+  </si>
+  <si>
+    <t>Kaksha</t>
+  </si>
+  <si>
+    <t>Somya Chawla</t>
   </si>
 </sst>
 </file>
@@ -170,71 +179,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -254,49 +202,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -579,223 +520,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>45902</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>45896</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>45803</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>45771</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>45762</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>45764</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>45751</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>45772</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>45700</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="10">
+        <v>45975</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>